--- a/Retainer Invoice_Sreekanth_Reddy_2023_Jan.pdf.xlsx
+++ b/Retainer Invoice_Sreekanth_Reddy_2023_Jan.pdf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{87A0C30A-FF3C-4CDE-AE82-9ADA38A44736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8D7976-AD6D-4FB9-9CC2-00C4A088CDF3}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{87A0C30A-FF3C-4CDE-AE82-9ADA38A44736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1809102A-B1BF-4A1D-A723-70E4F8C83514}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="aIQozzka0KNou8vOBH2/xbyZErq15J6cWRJs+/uw4AIsMjBIK2/x/GEd85PHt89Prb9xHTGba/LGyJM0FJbTLg==" workbookSaltValue="v5rf1Cx30iUJm9eGt2cw4g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2171,7 +2171,7 @@
     <t>sreekanthreddy218@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Twenty Thousand Three Hundred Twenty Three Only </t>
+    <t>Thirty Thousand Only</t>
   </si>
 </sst>
 </file>
@@ -3255,29 +3255,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3326,6 +3303,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3343,39 +3343,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3398,11 +3365,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3809,8 +3809,8 @@
   </sheetPr>
   <dimension ref="A1:XDR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3856,23 +3856,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="121"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="219"/>
     </row>
     <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="121"/>
@@ -3911,7 +3911,7 @@
       <c r="K4" s="116"/>
       <c r="L4" s="181" t="str">
         <f>UPPER(VLOOKUP(Update!B2,Sheet4!$B$2:$J$6,9,0))</f>
-        <v>RETAINER FEB23</v>
+        <v>STIPEND FEB23</v>
       </c>
       <c r="M4" s="116"/>
       <c r="N4" s="116"/>
@@ -4088,13 +4088,13 @@
         <v>7</v>
       </c>
       <c r="K11" s="170"/>
-      <c r="L11" s="204" t="str">
+      <c r="L11" s="220" t="str">
         <f>Update!B15</f>
         <v>9494425931</v>
       </c>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="221"/>
       <c r="P11" s="171"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -4116,13 +4116,13 @@
         <v>9</v>
       </c>
       <c r="K12" s="170"/>
-      <c r="L12" s="204" t="str">
+      <c r="L12" s="220" t="str">
         <f>Update!B16</f>
         <v>sreekanthreddy218@gmail.com</v>
       </c>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="221"/>
       <c r="P12" s="171"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4173,13 +4173,13 @@
       <c r="G15" s="170"/>
       <c r="H15" s="170"/>
       <c r="I15" s="170"/>
-      <c r="J15" s="206" t="s">
+      <c r="J15" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
+      <c r="K15" s="222"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
       <c r="O15" s="170"/>
       <c r="P15" s="171"/>
     </row>
@@ -4405,15 +4405,15 @@
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
-      <c r="E25" s="207" t="s">
+      <c r="E25" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="207"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
       <c r="L25" s="97"/>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
@@ -4439,46 +4439,46 @@
       <c r="P26" s="124"/>
     </row>
     <row r="27" spans="1:16346" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="222" t="s">
+      <c r="A27" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="208" t="s">
+      <c r="D27" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="208" t="s">
+      <c r="E27" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="208" t="s">
+      <c r="F27" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="208" t="s">
+      <c r="G27" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="208" t="s">
+      <c r="H27" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="208" t="s">
+      <c r="I27" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="219" t="s">
+      <c r="J27" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219" t="s">
+      <c r="K27" s="213"/>
+      <c r="L27" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="219"/>
-      <c r="N27" s="220" t="s">
+      <c r="M27" s="213"/>
+      <c r="N27" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="221"/>
-      <c r="P27" s="210" t="s">
+      <c r="O27" s="215"/>
+      <c r="P27" s="204" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="88"/>
@@ -20813,15 +20813,15 @@
       <c r="XDR27" s="88"/>
     </row>
     <row r="28" spans="1:16346" s="89" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="223"/>
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
       <c r="J28" s="153" t="s">
         <v>32</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="153"/>
-      <c r="P28" s="211"/>
+      <c r="P28" s="205"/>
       <c r="Q28" s="88"/>
       <c r="R28" s="88"/>
       <c r="S28" s="88"/>
@@ -37194,7 +37194,7 @@
       </c>
       <c r="B30" s="161" t="str">
         <f>VLOOKUP(Update!B2,Sheet4!$B$2:$K$6,10,0)</f>
-        <v xml:space="preserve">Retainer Fee </v>
+        <v>Stipend</v>
       </c>
       <c r="C30" s="190">
         <v>998599</v>
@@ -37693,11 +37693,11 @@
       <c r="P51" s="134"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="212" t="s">
+      <c r="A52" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="207"/>
       <c r="D52" s="97" t="e">
         <f>C12</f>
         <v>#N/A</v>
@@ -37734,16 +37734,16 @@
       <c r="P53" s="124"/>
     </row>
     <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="214" t="s">
+      <c r="A54" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="215"/>
-      <c r="C54" s="215"/>
-      <c r="D54" s="215"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="215"/>
-      <c r="G54" s="215"/>
-      <c r="H54" s="215"/>
+      <c r="B54" s="209"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
       <c r="I54" s="97"/>
       <c r="J54" s="97"/>
       <c r="K54" s="97"/>
@@ -37757,14 +37757,14 @@
       <c r="P54" s="157"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="216"/>
-      <c r="B55" s="215"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="215"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="215"/>
-      <c r="G55" s="215"/>
-      <c r="H55" s="215"/>
+      <c r="A55" s="210"/>
+      <c r="B55" s="209"/>
+      <c r="C55" s="209"/>
+      <c r="D55" s="209"/>
+      <c r="E55" s="209"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="209"/>
+      <c r="H55" s="209"/>
       <c r="I55" s="97"/>
       <c r="J55" s="97"/>
       <c r="K55" s="97"/>
@@ -37775,14 +37775,14 @@
       <c r="P55" s="157"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="216"/>
-      <c r="B56" s="215"/>
-      <c r="C56" s="215"/>
-      <c r="D56" s="215"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="215"/>
-      <c r="G56" s="215"/>
-      <c r="H56" s="215"/>
+      <c r="A56" s="210"/>
+      <c r="B56" s="209"/>
+      <c r="C56" s="209"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="209"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="209"/>
+      <c r="H56" s="209"/>
       <c r="I56" s="97"/>
       <c r="J56" s="97"/>
       <c r="K56" s="97"/>
@@ -37793,14 +37793,14 @@
       <c r="P56" s="157"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="216"/>
-      <c r="B57" s="215"/>
-      <c r="C57" s="215"/>
-      <c r="D57" s="215"/>
-      <c r="E57" s="215"/>
-      <c r="F57" s="215"/>
-      <c r="G57" s="215"/>
-      <c r="H57" s="215"/>
+      <c r="A57" s="210"/>
+      <c r="B57" s="209"/>
+      <c r="C57" s="209"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="209"/>
+      <c r="F57" s="209"/>
+      <c r="G57" s="209"/>
+      <c r="H57" s="209"/>
       <c r="I57" s="97"/>
       <c r="J57" s="97"/>
       <c r="K57" s="97"/>
@@ -37813,14 +37813,14 @@
       <c r="P57" s="124"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="216"/>
-      <c r="B58" s="215"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="215"/>
-      <c r="E58" s="215"/>
-      <c r="F58" s="215"/>
-      <c r="G58" s="215"/>
-      <c r="H58" s="215"/>
+      <c r="A58" s="210"/>
+      <c r="B58" s="209"/>
+      <c r="C58" s="209"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="209"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="209"/>
+      <c r="H58" s="209"/>
       <c r="I58" s="97"/>
       <c r="J58" s="97"/>
       <c r="K58" s="97"/>
@@ -37831,14 +37831,14 @@
       <c r="P58" s="124"/>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="217"/>
-      <c r="B59" s="218"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="218"/>
-      <c r="H59" s="218"/>
+      <c r="A59" s="211"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="212"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="212"/>
+      <c r="F59" s="212"/>
+      <c r="G59" s="212"/>
+      <c r="H59" s="212"/>
       <c r="I59" s="154"/>
       <c r="J59" s="154"/>
       <c r="K59" s="154"/>
@@ -37850,6 +37850,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="E25:K25"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="A52:C52"/>
@@ -37865,11 +37870,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="E25:K25"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -37889,7 +37889,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37917,7 +37917,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -41553,13 +41553,13 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="247" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -41569,167 +41569,167 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="246" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="234" t="s">
+      <c r="J2" s="248" t="s">
         <v>447</v>
       </c>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
       <c r="O2" s="196"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
       <c r="O3" s="196"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
       <c r="O4" s="196"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="237"/>
       <c r="O5" s="196"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="237"/>
       <c r="O6" s="196"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
       <c r="O7" s="196"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
       <c r="O8" s="196"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="237"/>
       <c r="O9" s="196"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="232"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="240"/>
+      <c r="N10" s="240"/>
       <c r="O10" s="197"/>
       <c r="P10" s="6"/>
     </row>
@@ -41753,171 +41753,171 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="249" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="235" t="s">
+      <c r="J12" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249"/>
       <c r="O12" s="198"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="246" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="230" t="s">
+      <c r="J13" s="246" t="s">
         <v>450</v>
       </c>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="231"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
       <c r="O13" s="196"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="231"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="231"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
       <c r="O14" s="196"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
       <c r="O15" s="196"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="231"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="231"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="231"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
       <c r="O16" s="196"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="231"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="237"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
       <c r="O17" s="196"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="231"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
       <c r="O18" s="196"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="237"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
       <c r="O19" s="196"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="240"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="240"/>
       <c r="O20" s="197"/>
       <c r="P20" s="6"/>
     </row>
@@ -41944,15 +41944,15 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="236" t="s">
+      <c r="E22" s="241" t="s">
         <v>451</v>
       </c>
-      <c r="F22" s="236"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="236"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="236"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -41978,59 +41978,59 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="237" t="s">
+      <c r="A24" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="239" t="s">
+      <c r="B24" s="244" t="s">
         <v>452</v>
       </c>
-      <c r="C24" s="239" t="s">
+      <c r="C24" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="239" t="s">
+      <c r="D24" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="239" t="s">
+      <c r="E24" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="239" t="s">
+      <c r="F24" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="239" t="s">
+      <c r="G24" s="244" t="s">
         <v>453</v>
       </c>
-      <c r="H24" s="239" t="s">
+      <c r="H24" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="239" t="s">
+      <c r="I24" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="241" t="s">
+      <c r="J24" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241" t="s">
+      <c r="K24" s="230"/>
+      <c r="L24" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="241"/>
-      <c r="N24" s="242" t="s">
+      <c r="M24" s="230"/>
+      <c r="N24" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="243"/>
-      <c r="P24" s="244" t="s">
+      <c r="O24" s="232"/>
+      <c r="P24" s="233" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="238"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="240"/>
-      <c r="I25" s="240"/>
+      <c r="A25" s="243"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="245"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="245"/>
       <c r="J25" s="14" t="s">
         <v>32</v>
       </c>
@@ -42047,7 +42047,7 @@
         <v>32</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="P25" s="245"/>
+      <c r="P25" s="234"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
@@ -42501,11 +42501,11 @@
       <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="246" t="s">
+      <c r="A48" s="235" t="s">
         <v>455</v>
       </c>
-      <c r="B48" s="246"/>
-      <c r="C48" s="246"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -42539,16 +42539,16 @@
       <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="247" t="s">
+      <c r="A50" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="231"/>
-      <c r="C50" s="231"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="231"/>
+      <c r="B50" s="237"/>
+      <c r="C50" s="237"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="237"/>
+      <c r="H50" s="237"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -42561,14 +42561,14 @@
       <c r="P50" s="33"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="248"/>
-      <c r="B51" s="231"/>
-      <c r="C51" s="231"/>
-      <c r="D51" s="231"/>
-      <c r="E51" s="231"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="231"/>
+      <c r="A51" s="238"/>
+      <c r="B51" s="237"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -42579,14 +42579,14 @@
       <c r="P51" s="33"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="248"/>
-      <c r="B52" s="231"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="231"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="231"/>
+      <c r="A52" s="238"/>
+      <c r="B52" s="237"/>
+      <c r="C52" s="237"/>
+      <c r="D52" s="237"/>
+      <c r="E52" s="237"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -42597,14 +42597,14 @@
       <c r="P52" s="33"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="248"/>
-      <c r="B53" s="231"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="231"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="231"/>
-      <c r="H53" s="231"/>
+      <c r="A53" s="238"/>
+      <c r="B53" s="237"/>
+      <c r="C53" s="237"/>
+      <c r="D53" s="237"/>
+      <c r="E53" s="237"/>
+      <c r="F53" s="237"/>
+      <c r="G53" s="237"/>
+      <c r="H53" s="237"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -42617,14 +42617,14 @@
       <c r="P53" s="4"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="248"/>
-      <c r="B54" s="231"/>
-      <c r="C54" s="231"/>
-      <c r="D54" s="231"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="231"/>
-      <c r="H54" s="231"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="237"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="237"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -42635,14 +42635,14 @@
       <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="249"/>
-      <c r="B55" s="232"/>
-      <c r="C55" s="232"/>
-      <c r="D55" s="232"/>
-      <c r="E55" s="232"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="232"/>
-      <c r="H55" s="232"/>
+      <c r="A55" s="239"/>
+      <c r="B55" s="240"/>
+      <c r="C55" s="240"/>
+      <c r="D55" s="240"/>
+      <c r="E55" s="240"/>
+      <c r="F55" s="240"/>
+      <c r="G55" s="240"/>
+      <c r="H55" s="240"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -42659,11 +42659,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A50:H55"/>
+    <mergeCell ref="B13:F20"/>
+    <mergeCell ref="J13:N20"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:F10"/>
+    <mergeCell ref="J2:N10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:N12"/>
     <mergeCell ref="E22:K22"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -42675,13 +42677,11 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B13:F20"/>
-    <mergeCell ref="J13:N20"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:F10"/>
-    <mergeCell ref="J2:N10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A50:H55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1:J1" r:id="rId1" display="GST Invoice format - Draft" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -42693,12 +42693,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42942,28 +42942,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F62EDA-B93B-4494-9031-00D5C35602D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AF639D9-35F4-4A55-A728-34C7597C6025}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="caaacd14-b38f-410b-9256-3a09a1fc4de1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5216af26-5ff8-47b4-aa8f-84b344ba6526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42989,9 +42979,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AF639D9-35F4-4A55-A728-34C7597C6025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F62EDA-B93B-4494-9031-00D5C35602D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="caaacd14-b38f-410b-9256-3a09a1fc4de1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5216af26-5ff8-47b4-aa8f-84b344ba6526"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>